--- a/scripts/output_cam.xlsx
+++ b/scripts/output_cam.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,31 +474,39 @@
           <t>Maj</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>160.69</v>
+        <v>77.16</v>
       </c>
       <c r="B2" t="n">
-        <v>876.64</v>
+        <v>93.62</v>
       </c>
       <c r="C2" t="n">
-        <v>168.03</v>
+        <v>15.54</v>
       </c>
       <c r="D2" t="n">
-        <v>2.43</v>
+        <v>0.82</v>
       </c>
       <c r="E2" t="n">
-        <v>694.13</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>64.61</v>
+        <v>78.11</v>
       </c>
       <c r="G2" t="n">
-        <v>79.37</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>60.76</v>
+        <v>79</v>
+      </c>
+      <c r="I2" t="n">
+        <v>78.11</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/output_cam.xlsx
+++ b/scripts/output_cam.xlsx
@@ -482,31 +482,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>77.16</v>
+        <v>778.08</v>
       </c>
       <c r="B2" t="n">
-        <v>93.62</v>
+        <v>379.42</v>
       </c>
       <c r="C2" t="n">
-        <v>15.54</v>
+        <v>21.17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.82</v>
+        <v>70.17</v>
       </c>
       <c r="E2" t="n">
-        <v>75.81999999999999</v>
+        <v>286.69</v>
       </c>
       <c r="F2" t="n">
-        <v>78.11</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>93.18000000000001</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>79</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>78.11</v>
+        <v>95.98999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/output_cam.xlsx
+++ b/scripts/output_cam.xlsx
@@ -482,31 +482,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>778.08</v>
+        <v>32.01</v>
       </c>
       <c r="B2" t="n">
-        <v>379.42</v>
+        <v>1489.89</v>
       </c>
       <c r="C2" t="n">
-        <v>21.17</v>
+        <v>79.09</v>
       </c>
       <c r="D2" t="n">
-        <v>70.17</v>
+        <v>1.59</v>
       </c>
       <c r="E2" t="n">
-        <v>286.69</v>
+        <v>1397.34</v>
       </c>
       <c r="F2" t="n">
-        <v>95.98999999999999</v>
+        <v>73</v>
       </c>
       <c r="G2" t="n">
-        <v>97.26000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>96.45999999999999</v>
+        <v>75.95999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>95.98999999999999</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/output_cam.xlsx
+++ b/scripts/output_cam.xlsx
@@ -482,31 +482,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>778.08</v>
+        <v>1199.2</v>
       </c>
       <c r="B2" t="n">
-        <v>379.42</v>
+        <v>3503.36</v>
       </c>
       <c r="C2" t="n">
-        <v>21.17</v>
+        <v>300.31</v>
       </c>
       <c r="D2" t="n">
-        <v>70.17</v>
+        <v>315.28</v>
       </c>
       <c r="E2" t="n">
-        <v>286.69</v>
+        <v>2871.85</v>
       </c>
       <c r="F2" t="n">
-        <v>95.98999999999999</v>
+        <v>93.89</v>
       </c>
       <c r="G2" t="n">
-        <v>97.26000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>96.45999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="I2" t="n">
-        <v>95.98999999999999</v>
+        <v>93.89</v>
       </c>
     </row>
   </sheetData>
